--- a/ingredients.xlsx
+++ b/ingredients.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="845">
   <si>
     <t>ingredients</t>
   </si>
@@ -2477,6 +2477,18 @@
   </si>
   <si>
     <t>chili oil</t>
+  </si>
+  <si>
+    <t>chutney</t>
+  </si>
+  <si>
+    <t>beef tenderloin</t>
+  </si>
+  <si>
+    <t>chickpea flour</t>
+  </si>
+  <si>
+    <t>whipped topping</t>
   </si>
   <si>
     <t>Dairy</t>
@@ -2894,7 +2906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B821"/>
+  <dimension ref="A1:B825"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2913,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2921,7 +2933,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2929,7 +2941,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2937,7 +2949,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2945,7 +2957,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2953,7 +2965,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2961,7 +2973,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2969,7 +2981,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2977,7 +2989,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2985,7 +2997,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2993,7 +3005,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3001,7 +3013,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3009,7 +3021,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3017,7 +3029,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3025,7 +3037,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3033,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3041,7 +3053,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3049,7 +3061,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3057,7 +3069,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3065,7 +3077,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3073,7 +3085,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3081,7 +3093,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3089,7 +3101,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3097,7 +3109,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3105,7 +3117,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3113,7 +3125,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3121,7 +3133,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3129,7 +3141,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3137,7 +3149,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3145,7 +3157,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3153,7 +3165,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3161,7 +3173,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3169,7 +3181,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3177,7 +3189,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3185,7 +3197,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3193,7 +3205,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3201,7 +3213,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3209,7 +3221,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3217,7 +3229,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3225,7 +3237,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3233,7 +3245,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3241,7 +3253,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3249,7 +3261,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3257,7 +3269,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3265,7 +3277,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3273,7 +3285,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3281,7 +3293,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3289,7 +3301,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3297,7 +3309,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3305,7 +3317,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3313,7 +3325,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3321,7 +3333,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3329,7 +3341,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3337,7 +3349,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3345,7 +3357,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3353,7 +3365,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3361,7 +3373,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3369,7 +3381,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3377,7 +3389,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3385,7 +3397,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3393,7 +3405,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3401,7 +3413,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3409,7 +3421,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3417,7 +3429,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3425,7 +3437,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3433,7 +3445,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3441,7 +3453,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3449,7 +3461,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3457,7 +3469,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3465,7 +3477,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3473,7 +3485,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3481,7 +3493,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3489,7 +3501,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3497,7 +3509,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3505,7 +3517,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3513,7 +3525,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3521,7 +3533,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3529,7 +3541,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3537,7 +3549,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3545,7 +3557,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3553,7 +3565,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3561,7 +3573,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3569,7 +3581,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3577,7 +3589,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3585,7 +3597,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3593,7 +3605,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3601,7 +3613,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3609,7 +3621,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3617,7 +3629,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3625,7 +3637,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3633,7 +3645,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3641,7 +3653,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3649,7 +3661,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3657,7 +3669,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3665,7 +3677,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3673,7 +3685,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3681,7 +3693,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3689,7 +3701,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3697,7 +3709,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3705,7 +3717,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -3713,7 +3725,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -3721,7 +3733,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3729,7 +3741,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3737,7 +3749,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3745,7 +3757,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3753,7 +3765,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3761,7 +3773,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3769,7 +3781,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3777,7 +3789,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3785,7 +3797,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3793,7 +3805,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3801,7 +3813,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3809,7 +3821,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3817,7 +3829,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3825,7 +3837,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3833,7 +3845,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3841,7 +3853,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3849,7 +3861,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3857,7 +3869,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3865,7 +3877,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3873,7 +3885,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3881,7 +3893,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3889,7 +3901,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3897,7 +3909,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3905,7 +3917,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3913,7 +3925,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3921,7 +3933,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3929,7 +3941,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3937,7 +3949,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3945,7 +3957,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3953,7 +3965,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3961,7 +3973,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3969,7 +3981,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3977,7 +3989,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3985,7 +3997,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3993,7 +4005,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4001,7 +4013,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4009,7 +4021,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4017,7 +4029,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4025,7 +4037,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4033,7 +4045,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4041,7 +4053,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4049,7 +4061,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4057,7 +4069,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4065,7 +4077,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -4073,7 +4085,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -4081,7 +4093,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -4089,7 +4101,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -4097,7 +4109,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -4105,7 +4117,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -4113,7 +4125,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -4121,7 +4133,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4129,7 +4141,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -4137,7 +4149,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -4145,7 +4157,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -4153,7 +4165,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -4161,7 +4173,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -4169,7 +4181,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -4177,7 +4189,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -4185,7 +4197,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -4193,7 +4205,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -4201,7 +4213,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -4209,7 +4221,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -4217,7 +4229,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -4225,7 +4237,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -4233,7 +4245,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -4241,7 +4253,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -4249,7 +4261,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -4257,7 +4269,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -4265,7 +4277,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -4273,7 +4285,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -4281,7 +4293,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -4289,7 +4301,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -4297,7 +4309,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -4305,7 +4317,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -4313,7 +4325,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -4321,7 +4333,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -4329,7 +4341,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -4337,7 +4349,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -4345,7 +4357,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -4353,7 +4365,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -4361,7 +4373,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -4369,7 +4381,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -4377,7 +4389,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -4385,7 +4397,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -4393,7 +4405,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -4401,7 +4413,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -4409,7 +4421,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -4417,7 +4429,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -4425,7 +4437,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -4433,7 +4445,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4441,7 +4453,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -4449,7 +4461,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -4457,7 +4469,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -4465,7 +4477,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -4473,7 +4485,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -4481,7 +4493,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -4489,7 +4501,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -4497,7 +4509,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -4505,7 +4517,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -4513,7 +4525,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -4521,7 +4533,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -4529,7 +4541,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -4537,7 +4549,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -4545,7 +4557,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -4553,7 +4565,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -4561,7 +4573,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -4569,7 +4581,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -4577,7 +4589,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -4585,7 +4597,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -4593,7 +4605,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -4601,7 +4613,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -4609,7 +4621,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -4617,7 +4629,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -4625,7 +4637,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -4633,7 +4645,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -4641,7 +4653,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -4649,7 +4661,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -4657,7 +4669,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -4665,7 +4677,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -4673,7 +4685,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -4681,7 +4693,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -4689,7 +4701,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -4697,7 +4709,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -4705,7 +4717,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -4713,7 +4725,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -4721,7 +4733,7 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -4729,7 +4741,7 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -4737,7 +4749,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -4745,7 +4757,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -4753,7 +4765,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4761,7 +4773,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4769,7 +4781,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -4777,7 +4789,7 @@
         <v>15</v>
       </c>
       <c r="B235" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -4785,7 +4797,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -4793,7 +4805,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4801,7 +4813,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4809,7 +4821,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4817,7 +4829,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4825,7 +4837,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -4833,7 +4845,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -4841,7 +4853,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -4849,7 +4861,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -4857,7 +4869,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -4865,7 +4877,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4873,7 +4885,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4881,7 +4893,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -4889,7 +4901,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -4897,7 +4909,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -4905,7 +4917,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -4913,7 +4925,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -4921,7 +4933,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -4929,7 +4941,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -4937,7 +4949,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4945,7 +4957,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -4953,7 +4965,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4961,7 +4973,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -4969,7 +4981,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -4977,7 +4989,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4985,7 +4997,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4993,7 +5005,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -5001,7 +5013,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -5009,7 +5021,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -5017,7 +5029,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5025,7 +5037,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -5033,7 +5045,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -5041,7 +5053,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5049,7 +5061,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -5057,7 +5069,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -5065,7 +5077,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -5073,7 +5085,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -5081,7 +5093,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5089,7 +5101,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -5097,7 +5109,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5105,7 +5117,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -5113,7 +5125,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5121,7 +5133,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -5129,7 +5141,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -5137,7 +5149,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -5145,7 +5157,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5153,7 +5165,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -5161,7 +5173,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -5169,7 +5181,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -5177,7 +5189,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -5185,7 +5197,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -5193,7 +5205,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5201,7 +5213,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -5209,7 +5221,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -5217,7 +5229,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -5225,7 +5237,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -5233,7 +5245,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -5241,7 +5253,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -5249,7 +5261,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -5257,7 +5269,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -5265,7 +5277,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5273,7 +5285,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -5281,7 +5293,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -5289,7 +5301,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -5297,7 +5309,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -5305,7 +5317,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -5313,7 +5325,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -5321,7 +5333,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -5329,7 +5341,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -5337,7 +5349,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -5345,7 +5357,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -5353,7 +5365,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -5361,7 +5373,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -5369,7 +5381,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -5377,7 +5389,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -5385,7 +5397,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -5393,7 +5405,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -5401,7 +5413,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -5409,7 +5421,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -5417,7 +5429,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -5425,7 +5437,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -5433,7 +5445,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -5441,7 +5453,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -5449,7 +5461,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -5457,7 +5469,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -5465,7 +5477,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -5473,7 +5485,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -5481,7 +5493,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -5489,7 +5501,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -5497,7 +5509,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -5505,7 +5517,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -5513,7 +5525,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -5521,7 +5533,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -5529,7 +5541,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -5537,7 +5549,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -5545,7 +5557,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -5553,7 +5565,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -5561,7 +5573,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -5569,7 +5581,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -5577,7 +5589,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -5585,7 +5597,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -5593,7 +5605,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -5601,7 +5613,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -5609,7 +5621,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -5617,7 +5629,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -5625,7 +5637,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -5633,7 +5645,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -5641,7 +5653,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -5649,7 +5661,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -5657,7 +5669,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -5665,7 +5677,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -5673,7 +5685,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -5681,7 +5693,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -5689,7 +5701,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -5697,7 +5709,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -5705,7 +5717,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -5713,7 +5725,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -5721,7 +5733,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -5729,7 +5741,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -5737,7 +5749,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -5745,7 +5757,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -5753,7 +5765,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -5761,7 +5773,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -5769,7 +5781,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -5777,7 +5789,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -5785,7 +5797,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -5793,7 +5805,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -5801,7 +5813,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -5809,7 +5821,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -5817,7 +5829,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -5825,7 +5837,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -5833,7 +5845,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -5841,7 +5853,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -5849,7 +5861,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -5857,7 +5869,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -5865,7 +5877,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -5873,7 +5885,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -5881,7 +5893,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -5889,7 +5901,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -5897,7 +5909,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -5905,7 +5917,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -5913,7 +5925,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -5921,7 +5933,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -5929,7 +5941,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -5937,7 +5949,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -5945,7 +5957,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -5953,7 +5965,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -5961,7 +5973,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -5969,7 +5981,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -5977,7 +5989,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -5985,7 +5997,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -5993,7 +6005,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -6001,7 +6013,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -6009,7 +6021,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -6017,7 +6029,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -6025,7 +6037,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6033,7 +6045,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -6041,7 +6053,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -6049,7 +6061,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -6057,7 +6069,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -6065,7 +6077,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -6073,7 +6085,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -6081,7 +6093,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -6089,7 +6101,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -6097,7 +6109,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -6105,7 +6117,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -6113,7 +6125,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -6121,7 +6133,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -6129,7 +6141,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -6137,7 +6149,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -6145,7 +6157,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -6153,7 +6165,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -6161,7 +6173,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -6169,7 +6181,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -6177,7 +6189,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -6185,7 +6197,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -6193,7 +6205,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -6201,7 +6213,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -6209,7 +6221,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -6217,7 +6229,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -6225,7 +6237,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -6233,7 +6245,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -6241,7 +6253,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -6249,7 +6261,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -6257,7 +6269,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -6265,7 +6277,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -6273,7 +6285,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -6281,7 +6293,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -6289,7 +6301,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -6297,7 +6309,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -6305,7 +6317,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -6313,7 +6325,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -6321,7 +6333,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -6329,7 +6341,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -6337,7 +6349,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -6345,7 +6357,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -6353,7 +6365,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -6361,7 +6373,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -6369,7 +6381,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -6377,7 +6389,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -6385,7 +6397,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -6393,7 +6405,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -6401,7 +6413,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -6409,7 +6421,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -6417,7 +6429,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -6425,7 +6437,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -6433,7 +6445,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -6441,7 +6453,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -6449,7 +6461,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -6457,7 +6469,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -6465,7 +6477,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -6473,7 +6485,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -6481,7 +6493,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -6489,7 +6501,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -6497,7 +6509,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -6505,7 +6517,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -6513,7 +6525,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -6521,7 +6533,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -6529,7 +6541,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -6537,7 +6549,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -6545,7 +6557,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -6553,7 +6565,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -6561,7 +6573,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -6569,7 +6581,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -6577,7 +6589,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -6585,7 +6597,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -6593,7 +6605,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -6601,7 +6613,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -6609,7 +6621,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -6617,7 +6629,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -6625,7 +6637,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -6633,7 +6645,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -6641,7 +6653,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -6649,7 +6661,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -6657,7 +6669,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -6665,7 +6677,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -6673,7 +6685,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -6681,7 +6693,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -6689,7 +6701,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -6697,7 +6709,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -6705,7 +6717,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -6713,7 +6725,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -6721,7 +6733,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -6729,7 +6741,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -6737,7 +6749,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -6745,7 +6757,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -6753,7 +6765,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -6761,7 +6773,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -6769,7 +6781,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -6777,7 +6789,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -6785,7 +6797,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -6793,7 +6805,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -6801,7 +6813,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -6809,7 +6821,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -6817,7 +6829,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -6825,7 +6837,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -6833,7 +6845,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -6841,7 +6853,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -6849,7 +6861,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -6857,7 +6869,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -6865,7 +6877,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -6873,7 +6885,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -6881,7 +6893,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -6889,7 +6901,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -6897,7 +6909,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -6905,7 +6917,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -6913,7 +6925,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -6921,7 +6933,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -6929,7 +6941,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -6937,7 +6949,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -6945,7 +6957,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -6953,7 +6965,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -6961,7 +6973,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -6969,7 +6981,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -6977,7 +6989,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -6985,7 +6997,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -6993,7 +7005,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -7001,7 +7013,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -7009,7 +7021,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -7017,7 +7029,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -7025,7 +7037,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -7033,7 +7045,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -7041,7 +7053,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -7049,7 +7061,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -7057,7 +7069,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -7065,7 +7077,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -7073,7 +7085,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -7081,7 +7093,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -7089,7 +7101,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -7097,7 +7109,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -7105,7 +7117,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -7113,7 +7125,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -7121,7 +7133,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -7129,7 +7141,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -7137,7 +7149,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -7145,7 +7157,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -7153,7 +7165,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -7161,7 +7173,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -7169,7 +7181,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -7177,7 +7189,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -7185,7 +7197,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -7193,7 +7205,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -7201,7 +7213,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -7209,7 +7221,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -7217,7 +7229,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -7225,7 +7237,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -7233,7 +7245,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -7241,7 +7253,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -7249,7 +7261,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -7257,7 +7269,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -7265,7 +7277,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -7273,7 +7285,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -7281,7 +7293,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -7289,7 +7301,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -7297,7 +7309,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -7305,7 +7317,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -7313,7 +7325,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -7321,7 +7333,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -7329,7 +7341,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -7337,7 +7349,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -7345,7 +7357,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -7353,7 +7365,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -7361,7 +7373,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -7369,7 +7381,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -7377,7 +7389,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -7385,7 +7397,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -7393,7 +7405,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -7401,7 +7413,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -7409,7 +7421,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -7417,7 +7429,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -7425,7 +7437,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -7433,7 +7445,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -7441,7 +7453,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -7449,7 +7461,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -7457,7 +7469,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -7465,7 +7477,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -7473,7 +7485,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -7481,7 +7493,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -7489,7 +7501,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -7497,7 +7509,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -7505,7 +7517,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -7513,7 +7525,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -7521,7 +7533,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -7529,7 +7541,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -7537,7 +7549,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -7545,7 +7557,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -7553,7 +7565,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -7561,7 +7573,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -7569,7 +7581,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -7577,7 +7589,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -7585,7 +7597,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -7593,7 +7605,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -7601,7 +7613,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -7609,7 +7621,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -7617,7 +7629,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -7625,7 +7637,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -7633,7 +7645,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -7641,7 +7653,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -7649,7 +7661,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -7657,7 +7669,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -7665,7 +7677,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -7673,7 +7685,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -7681,7 +7693,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -7689,7 +7701,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -7697,7 +7709,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -7705,7 +7717,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -7713,7 +7725,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -7721,7 +7733,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -7729,7 +7741,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -7737,7 +7749,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -7745,7 +7757,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -7753,7 +7765,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -7761,7 +7773,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -7769,7 +7781,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -7777,7 +7789,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -7785,7 +7797,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -7793,7 +7805,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -7801,7 +7813,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -7809,7 +7821,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -7817,7 +7829,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -7825,7 +7837,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -7833,7 +7845,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -7841,7 +7853,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -7849,7 +7861,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -7857,7 +7869,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -7865,7 +7877,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -7873,7 +7885,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -7881,7 +7893,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -7889,7 +7901,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -7897,7 +7909,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -7905,7 +7917,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -7913,7 +7925,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -7921,7 +7933,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -7929,7 +7941,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -7937,7 +7949,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -7945,7 +7957,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -7953,7 +7965,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -7961,7 +7973,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -7969,7 +7981,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -7977,7 +7989,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -7985,7 +7997,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -7993,7 +8005,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -8001,7 +8013,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -8009,7 +8021,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -8017,7 +8029,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -8025,7 +8037,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -8033,7 +8045,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -8041,7 +8053,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -8049,7 +8061,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -8057,7 +8069,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -8065,7 +8077,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -8073,7 +8085,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -8081,7 +8093,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -8089,7 +8101,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -8097,7 +8109,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -8105,7 +8117,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -8113,7 +8125,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -8121,7 +8133,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -8129,7 +8141,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -8137,7 +8149,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -8145,7 +8157,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -8153,7 +8165,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -8161,7 +8173,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -8169,7 +8181,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -8177,7 +8189,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -8185,7 +8197,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -8193,7 +8205,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -8201,7 +8213,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -8209,7 +8221,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -8217,7 +8229,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -8225,7 +8237,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -8233,7 +8245,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -8241,7 +8253,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -8249,7 +8261,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -8257,7 +8269,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -8265,7 +8277,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -8273,7 +8285,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -8281,7 +8293,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -8289,7 +8301,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -8297,7 +8309,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -8305,7 +8317,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -8313,7 +8325,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -8321,7 +8333,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -8329,7 +8341,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -8337,7 +8349,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -8345,7 +8357,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -8353,7 +8365,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -8361,7 +8373,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -8369,7 +8381,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -8377,7 +8389,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -8385,7 +8397,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -8393,7 +8405,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -8401,7 +8413,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -8409,7 +8421,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -8417,7 +8429,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -8425,7 +8437,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -8433,7 +8445,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -8441,7 +8453,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -8449,7 +8461,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -8457,7 +8469,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -8465,7 +8477,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -8473,7 +8485,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -8481,7 +8493,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -8489,7 +8501,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -8497,7 +8509,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -8505,7 +8517,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -8513,7 +8525,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -8521,7 +8533,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -8529,7 +8541,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -8537,7 +8549,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -8545,7 +8557,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -8553,7 +8565,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -8561,7 +8573,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -8569,7 +8581,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -8577,7 +8589,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -8585,7 +8597,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -8593,7 +8605,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -8601,7 +8613,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -8609,7 +8621,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -8617,7 +8629,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -8625,7 +8637,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -8633,7 +8645,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -8641,7 +8653,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -8649,7 +8661,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -8657,7 +8669,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -8665,7 +8677,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -8673,7 +8685,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -8681,7 +8693,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -8689,7 +8701,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -8697,7 +8709,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -8705,7 +8717,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -8713,7 +8725,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -8721,7 +8733,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -8729,7 +8741,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -8737,7 +8749,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -8745,7 +8757,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -8753,7 +8765,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -8761,7 +8773,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -8769,7 +8781,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -8777,7 +8789,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -8785,7 +8797,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -8793,7 +8805,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -8801,7 +8813,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -8809,7 +8821,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -8817,7 +8829,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -8825,7 +8837,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -8833,7 +8845,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -8841,7 +8853,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -8849,7 +8861,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -8857,7 +8869,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -8865,7 +8877,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -8873,7 +8885,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -8881,7 +8893,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -8889,7 +8901,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -8897,7 +8909,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -8905,7 +8917,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -8913,7 +8925,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -8921,7 +8933,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -8929,7 +8941,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -8937,7 +8949,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -8945,7 +8957,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -8953,7 +8965,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -8961,7 +8973,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -8969,7 +8981,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -8977,7 +8989,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -8985,7 +8997,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -8993,7 +9005,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -9001,7 +9013,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -9009,7 +9021,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -9017,7 +9029,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -9025,7 +9037,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -9033,7 +9045,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -9041,7 +9053,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -9049,7 +9061,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -9057,7 +9069,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -9065,7 +9077,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -9073,7 +9085,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -9081,7 +9093,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -9089,7 +9101,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -9097,7 +9109,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -9105,7 +9117,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -9113,7 +9125,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -9121,7 +9133,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -9129,7 +9141,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -9137,7 +9149,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -9145,7 +9157,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -9153,7 +9165,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -9161,7 +9173,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -9169,7 +9181,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -9177,7 +9189,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -9185,7 +9197,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -9193,7 +9205,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -9201,7 +9213,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -9209,7 +9221,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -9217,7 +9229,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -9225,7 +9237,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -9233,7 +9245,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -9241,7 +9253,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -9249,7 +9261,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -9257,7 +9269,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -9265,7 +9277,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -9273,7 +9285,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -9281,7 +9293,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -9289,7 +9301,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -9297,7 +9309,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -9305,7 +9317,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -9313,7 +9325,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -9321,7 +9333,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -9329,7 +9341,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -9337,7 +9349,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -9345,7 +9357,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -9353,7 +9365,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -9361,7 +9373,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -9369,7 +9381,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -9377,7 +9389,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -9385,7 +9397,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -9393,7 +9405,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -9401,7 +9413,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -9409,7 +9421,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -9417,7 +9429,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -9425,7 +9437,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -9433,7 +9445,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -9441,7 +9453,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -9449,7 +9461,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -9457,7 +9469,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -9465,7 +9477,39 @@
         <v>820</v>
       </c>
       <c r="B821" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" t="s">
+        <v>821</v>
+      </c>
+      <c r="B822" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" t="s">
+        <v>822</v>
+      </c>
+      <c r="B823" t="s">
         <v>831</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" t="s">
+        <v>823</v>
+      </c>
+      <c r="B824" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" t="s">
+        <v>824</v>
+      </c>
+      <c r="B825" t="s">
+        <v>841</v>
       </c>
     </row>
   </sheetData>
